--- a/week-2/Exercises/2-4-B-modeling-different-scenarios/modeling-various-scenarios-class-demo.xlsx
+++ b/week-2/Exercises/2-4-B-modeling-different-scenarios/modeling-various-scenarios-class-demo.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="autoNoTable" iterate="1" iterateCount="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -100,8 +100,8 @@
   <numFmts count="4">
     <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="170" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -225,14 +225,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="5" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
@@ -540,11 +540,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -557,12 +555,12 @@
     <col min="10" max="10" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
@@ -573,7 +571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -591,7 +589,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -609,7 +607,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -627,7 +625,7 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -645,7 +643,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -663,7 +661,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -681,7 +679,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -697,12 +695,8 @@
       <c r="F10" t="s">
         <v>13</v>
       </c>
-      <c r="J10">
-        <f>16*40*48</f>
-        <v>30720</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -726,7 +720,7 @@
         <v>116985.85600000001</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -751,7 +745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -760,23 +754,23 @@
         <v>50</v>
       </c>
       <c r="C14" s="9">
-        <f>B14*(1+$B$6)</f>
+        <f t="shared" ref="C14:F15" si="3">B14*(1+$B$6)</f>
         <v>51.5</v>
       </c>
       <c r="D14" s="9">
-        <f>C14*(1+$B$6)</f>
+        <f t="shared" si="3"/>
         <v>53.045000000000002</v>
       </c>
       <c r="E14" s="9">
-        <f>D14*(1+$B$6)</f>
+        <f t="shared" si="3"/>
         <v>54.63635</v>
       </c>
       <c r="F14" s="9">
-        <f>E14*(1+$B$6)</f>
+        <f t="shared" si="3"/>
         <v>56.275440500000002</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -785,19 +779,19 @@
         <v>150000</v>
       </c>
       <c r="C15" s="16">
-        <f>B15*(1+$B$6)</f>
+        <f t="shared" si="3"/>
         <v>154500</v>
       </c>
       <c r="D15" s="16">
-        <f>C15*(1+$B$6)</f>
+        <f t="shared" si="3"/>
         <v>159135</v>
       </c>
       <c r="E15" s="16">
-        <f>D15*(1+$B$6)</f>
+        <f t="shared" si="3"/>
         <v>163909.05000000002</v>
       </c>
       <c r="F15" s="16">
-        <f>E15*(1+$B$6)</f>
+        <f t="shared" si="3"/>
         <v>168826.32150000002</v>
       </c>
     </row>
@@ -835,19 +829,19 @@
         <v>5000000</v>
       </c>
       <c r="C18" s="9">
-        <f t="shared" ref="C18:F18" si="3">C12*C14</f>
+        <f t="shared" ref="C18:F18" si="4">C12*C14</f>
         <v>5356000</v>
       </c>
       <c r="D18" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5737347.2000000002</v>
       </c>
       <c r="E18" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6145846.3206400005</v>
       </c>
       <c r="F18" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6583430.5786695695</v>
       </c>
     </row>
@@ -860,19 +854,19 @@
         <v>1500000</v>
       </c>
       <c r="C19" s="9">
-        <f t="shared" ref="C19:F19" si="4">C15*C13</f>
+        <f t="shared" ref="C19:F19" si="5">C15*C13</f>
         <v>1699500</v>
       </c>
       <c r="D19" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1750485</v>
       </c>
       <c r="E19" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1966908.6</v>
       </c>
       <c r="F19" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2025915.8580000002</v>
       </c>
     </row>
@@ -885,19 +879,19 @@
         <v>14500000</v>
       </c>
       <c r="C20" s="9">
-        <f t="shared" ref="C20:F20" si="5">SUM(C17:C19)</f>
+        <f t="shared" ref="C20:F20" si="6">SUM(C17:C19)</f>
         <v>15295500</v>
       </c>
       <c r="D20" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15975032.199999999</v>
       </c>
       <c r="E20" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16854570.920640003</v>
       </c>
       <c r="F20" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17613416.91666957</v>
       </c>
     </row>
